--- a/SmokeAutomation/src/test/resources/excel/testdata.xlsx
+++ b/SmokeAutomation/src/test/resources/excel/testdata.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinesh\OneDrive\Desktop\risktestautomation\Refined_Risk_SmokeAutomation\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20250" windowHeight="8070" tabRatio="873" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20256" windowHeight="8076" tabRatio="873"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="265" r:id="rId1"/>
@@ -71,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5943" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951" uniqueCount="802">
   <si>
     <t>TCID</t>
   </si>
@@ -2482,8 +2477,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2592,7 +2587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2624,10 +2619,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2659,7 +2653,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2835,19 +2828,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>790</v>
       </c>
@@ -2863,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>791</v>
       </c>
@@ -2871,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>628</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>629</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>630</v>
       </c>
@@ -2895,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>663</v>
       </c>
@@ -2903,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>631</v>
       </c>
@@ -2911,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>632</v>
       </c>
@@ -2919,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>633</v>
       </c>
@@ -2927,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>634</v>
       </c>
@@ -2935,7 +2928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>635</v>
       </c>
@@ -2943,7 +2936,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>636</v>
       </c>
@@ -2951,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>637</v>
       </c>
@@ -2959,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>638</v>
       </c>
@@ -2967,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>639</v>
       </c>
@@ -2975,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>640</v>
       </c>
@@ -2983,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>641</v>
       </c>
@@ -2991,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -2999,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>740</v>
       </c>
@@ -3007,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>741</v>
       </c>
@@ -3015,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>760</v>
       </c>
@@ -3023,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>643</v>
       </c>
@@ -3031,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>644</v>
       </c>
@@ -3039,7 +3032,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>645</v>
       </c>
@@ -3047,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>646</v>
       </c>
@@ -3055,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>647</v>
       </c>
@@ -3063,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>648</v>
       </c>
@@ -3071,7 +3064,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>649</v>
       </c>
@@ -3079,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>650</v>
       </c>
@@ -3087,7 +3080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>651</v>
       </c>
@@ -3095,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>652</v>
       </c>
@@ -3103,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>653</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>654</v>
       </c>
@@ -3119,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>655</v>
       </c>
@@ -3127,7 +3120,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>656</v>
       </c>
@@ -3135,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>662</v>
       </c>
@@ -3143,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -3151,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>660</v>
       </c>
@@ -3159,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>659</v>
       </c>
@@ -3167,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -3175,7 +3168,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>657</v>
       </c>
@@ -3183,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>676</v>
       </c>
@@ -3191,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>675</v>
       </c>
@@ -3199,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>689</v>
       </c>
@@ -3207,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>699</v>
       </c>
@@ -3215,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>702</v>
       </c>
@@ -3223,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>726</v>
       </c>
@@ -3231,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>732</v>
       </c>
@@ -3239,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>782</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>783</v>
       </c>
@@ -3255,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>799</v>
       </c>
@@ -3263,7 +3256,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>800</v>
       </c>
@@ -3277,16 +3270,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO2"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3567,7 +3560,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3859,16 +3852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO2"/>
   <sheetViews>
     <sheetView topLeftCell="BP1" workbookViewId="0">
       <selection activeCell="CM2" sqref="CM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4149,7 +4142,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4441,16 +4434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4731,7 +4724,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5023,16 +5016,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
     <sheetView topLeftCell="BO1" workbookViewId="0">
       <selection activeCell="BY1" sqref="BY1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5319,7 +5312,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5617,16 +5610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView topLeftCell="BU1" workbookViewId="0">
       <selection activeCell="CS1" sqref="CS1:CS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5931,7 +5924,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6247,16 +6240,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6561,7 +6554,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6877,16 +6870,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7116,7 +7109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7359,16 +7352,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView topLeftCell="AV1" workbookViewId="0">
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7598,7 +7591,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7840,16 +7833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8079,7 +8072,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8322,16 +8315,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView topLeftCell="AX1" workbookViewId="0">
       <selection activeCell="BW2" sqref="BW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8561,7 +8554,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8804,16 +8797,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8926,7 +8919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9051,16 +9044,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9293,7 +9286,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9539,16 +9532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="BL39" sqref="BL39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9781,7 +9774,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10027,16 +10020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10269,7 +10262,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10515,16 +10508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10607,7 +10600,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10699,16 +10692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10740,7 +10733,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10781,16 +10774,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10843,7 +10836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10905,16 +10898,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10988,7 +10981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11071,16 +11064,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11304,7 +11297,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11538,16 +11531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AJ1" sqref="AJ1:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11657,7 +11650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11776,16 +11769,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11928,7 +11921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12080,16 +12073,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:AV2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -12235,7 +12228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12390,16 +12383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -12578,7 +12571,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12766,16 +12759,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -12966,7 +12959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13166,16 +13159,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView topLeftCell="AW1" workbookViewId="0">
       <selection activeCell="BW1" sqref="BW1:BW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -13408,7 +13401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13651,16 +13644,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -13845,7 +13838,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14040,16 +14033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="BV1" sqref="BV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -14273,7 +14266,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14507,16 +14500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -14737,7 +14730,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14968,16 +14961,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15201,7 +15194,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15435,16 +15428,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15491,7 +15484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15547,16 +15540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15603,7 +15596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15659,16 +15652,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15718,7 +15711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15777,16 +15770,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15818,76 +15811,88 @@
         <v>123</v>
       </c>
       <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" t="s">
         <v>125</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>142</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>141</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>143</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>130</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>148</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>162</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15919,93 +15924,109 @@
         <v>124</v>
       </c>
       <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>127</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>138</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>97</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>139</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>118</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>108</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>144</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>146</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>147</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>137</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>133</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>134</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>158</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>174</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>161</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>175</v>
       </c>
-      <c r="AR2" s="1"/>
-      <c r="AT2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AX2" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -16061,7 +16082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16126,16 +16147,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -16197,7 +16218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16268,16 +16289,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -16339,7 +16360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16411,16 +16432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CB2"/>
   <sheetViews>
     <sheetView topLeftCell="AX1" workbookViewId="0">
       <selection activeCell="BX1" sqref="BX1:BY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -16662,7 +16683,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16919,16 +16940,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -17182,7 +17203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17450,16 +17471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -17557,7 +17578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17664,16 +17685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -17789,7 +17810,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17914,16 +17935,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -18039,7 +18060,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18164,16 +18185,16 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -18304,7 +18325,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18444,16 +18465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CF2"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="CD2" sqref="CD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -18707,7 +18728,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18976,16 +18997,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -19104,7 +19125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19236,16 +19257,16 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -19550,7 +19571,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19866,16 +19887,16 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -19934,7 +19955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20002,16 +20023,16 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -20091,7 +20112,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20181,16 +20202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -20273,7 +20294,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20366,16 +20387,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -20488,7 +20509,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20613,16 +20634,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -20738,7 +20759,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20866,16 +20887,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO2"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -21156,7 +21177,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21448,16 +21469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CR2"/>
   <sheetViews>
     <sheetView topLeftCell="BB1" workbookViewId="0">
       <selection activeCell="BP1" sqref="BP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -21747,7 +21768,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96">
       <c r="A2" t="s">
         <v>2</v>
       </c>
